--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -10059,10 +10059,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_ltqf_011_fqdr_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>|渠道说明</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10260,6 +10256,10 @@
   </si>
   <si>
     <t>积分礼包任务权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ltqf_012_fqdr_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16007,11 +16007,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D374" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D368" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A387" sqref="A387:XFD387"/>
+      <selection pane="bottomRight" activeCell="D394" sqref="D394:D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28567,7 +28567,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="D372" s="65" t="s">
         <v>2183</v>
@@ -28701,7 +28701,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2128</v>
@@ -28806,7 +28806,7 @@
         <v>2174</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -28838,7 +28838,7 @@
         <v>2175</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -28870,7 +28870,7 @@
         <v>2176</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -28899,10 +28899,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -28931,10 +28931,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -28965,10 +28965,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -28999,10 +28999,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29033,10 +29033,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29067,10 +29067,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D387" s="110" t="s">
         <v>2235</v>
-      </c>
-      <c r="D387" s="110" t="s">
-        <v>2236</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29090,7 +29090,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
   </sheetData>
@@ -29106,7 +29106,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1013" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -53429,7 +53429,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -53475,7 +53475,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -53521,7 +53521,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -53613,7 +53613,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -53705,7 +53705,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -53797,7 +53797,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -53820,7 +53820,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -53870,7 +53870,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -53878,13 +53878,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -53924,7 +53924,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -53953,7 +53953,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -53970,22 +53970,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>2194</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -54008,7 +54008,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -54016,22 +54016,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2198</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -54054,7 +54054,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -54062,13 +54062,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -54077,7 +54077,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -54085,7 +54085,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
@@ -54100,7 +54100,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -54123,7 +54123,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -54131,7 +54131,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
@@ -54154,7 +54154,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
@@ -54200,7 +54200,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
@@ -54215,7 +54215,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -54223,22 +54223,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2210</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>2211</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2212</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -54246,22 +54246,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2215</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -54269,22 +54269,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2218</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2219</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="2241">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10260,6 +10260,18 @@
   </si>
   <si>
     <t>actp_rank_ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_tiny_game_drop_act</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金掉落活动道具（非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具掉落模板权限，永久</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16005,13 +16017,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O387"/>
+  <dimension ref="A1:O388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D368" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D394" sqref="D394:D395"/>
+      <selection pane="bottomRight" activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29093,6 +29105,38 @@
         <v>2236</v>
       </c>
     </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="25">
+        <v>387</v>
+      </c>
+      <c r="B388" s="25">
+        <v>1</v>
+      </c>
+      <c r="C388" s="25" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D388" s="25" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G388" s="25">
+        <v>423</v>
+      </c>
+      <c r="H388" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I388" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K388" s="25">
+        <v>1618272000</v>
+      </c>
+      <c r="L388" s="25" t="s">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -29104,13 +29148,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1034"/>
+  <dimension ref="A1:I1035"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1013" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1034" sqref="B1034"/>
+      <selection pane="bottomRight" activeCell="B1035" sqref="B1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53820,6 +53864,29 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7">
+      <c r="A1035" s="8">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="91">
+        <v>423</v>
+      </c>
+      <c r="C1035" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1035" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1035" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1035" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1035" s="92" t="s">
         <v>2231</v>
       </c>
     </row>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="2248">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10272,6 +10272,60 @@
   </si>
   <si>
     <t>道具掉落模板权限，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctp_prop_exchange_nor</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP5，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换模板权限，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP5玩家才可兑换</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16017,13 +16071,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O388"/>
+  <dimension ref="A1:O390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F388" sqref="F388"/>
+      <selection pane="bottomRight" activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29105,20 +29159,22 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
-      <c r="A388" s="25">
+    <row r="388" spans="1:12" s="112" customFormat="1">
+      <c r="A388" s="110">
         <v>387</v>
       </c>
-      <c r="B388" s="25">
-        <v>1</v>
-      </c>
-      <c r="C388" s="25" t="s">
+      <c r="B388" s="110">
+        <v>1</v>
+      </c>
+      <c r="C388" s="110" t="s">
         <v>2238</v>
       </c>
-      <c r="D388" s="25" t="s">
+      <c r="D388" s="110" t="s">
         <v>2239</v>
       </c>
-      <c r="G388" s="25">
+      <c r="E388" s="110"/>
+      <c r="F388" s="110"/>
+      <c r="G388" s="110">
         <v>423</v>
       </c>
       <c r="H388" s="110" t="b">
@@ -29130,11 +29186,79 @@
       <c r="J388" s="109" t="s">
         <v>1114</v>
       </c>
-      <c r="K388" s="25">
+      <c r="K388" s="110">
         <v>1618272000</v>
       </c>
-      <c r="L388" s="25" t="s">
+      <c r="L388" s="110" t="s">
         <v>2240</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="112" customFormat="1">
+      <c r="A389" s="110">
+        <v>388</v>
+      </c>
+      <c r="B389" s="110">
+        <v>1</v>
+      </c>
+      <c r="C389" s="109" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D389" s="109" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E389" s="110"/>
+      <c r="F389" s="110"/>
+      <c r="G389" s="110">
+        <v>424</v>
+      </c>
+      <c r="H389" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I389" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K389" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L389" s="109" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="112" customFormat="1">
+      <c r="A390" s="110">
+        <v>389</v>
+      </c>
+      <c r="B390" s="110">
+        <v>1</v>
+      </c>
+      <c r="C390" s="109" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D390" s="109" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E390" s="110"/>
+      <c r="F390" s="110"/>
+      <c r="G390" s="110">
+        <v>425</v>
+      </c>
+      <c r="H390" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I390" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="109" t="s">
+        <v>2245</v>
+      </c>
+      <c r="K390" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L390" s="109" t="s">
+        <v>2246</v>
       </c>
     </row>
   </sheetData>
@@ -29148,13 +29272,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1035"/>
+  <dimension ref="A1:I1038"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1013" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1035" sqref="B1035"/>
+      <selection pane="bottomRight" activeCell="E1039" sqref="E1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53888,6 +54012,75 @@
       </c>
       <c r="G1035" s="92" t="s">
         <v>2231</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7">
+      <c r="A1036" s="7">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="91">
+        <v>424</v>
+      </c>
+      <c r="C1036" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1036" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1036" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1036" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1036" s="92" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="A1037" s="8">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="91">
+        <v>425</v>
+      </c>
+      <c r="C1037" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1037" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1037" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1037" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1037" s="92" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" s="8">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="91">
+        <v>425</v>
+      </c>
+      <c r="C1038" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1038" s="91">
+        <v>5</v>
+      </c>
+      <c r="E1038" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1038" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1038" s="92" t="s">
+        <v>2247</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="2269">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10135,10 +10135,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>tthlby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10325,6 +10321,202 @@
         <scheme val="minor"/>
       </rPr>
       <t>IP5玩家才可兑换</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜上有礼（非冲金鸡玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021年4月19日23:59:59结束</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_1000538</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_continuity_buy_gift_nor_v3down</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_continuity_buy_gift_nor_v4up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_continuity_buy_gift_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cjj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_v3down</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_continuity_buy_gift_cjj_v4up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连购返利（v3及以下用户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3D捕鱼和捕鱼奥秘）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v4及以上用户，3D捕鱼和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v3及以下用户，冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利（v4及以上用户，冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连购返利任务权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP3及以下玩家</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP4及以上玩家</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10590,7 +10782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10896,6 +11088,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16071,13 +16271,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O390"/>
+  <dimension ref="A1:O396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D374" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E390" sqref="E390"/>
+      <selection pane="bottomRight" activeCell="F399" sqref="F399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28633,7 +28833,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D372" s="65" t="s">
         <v>2183</v>
@@ -28767,7 +28967,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2128</v>
@@ -28872,7 +29072,7 @@
         <v>2174</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -28904,7 +29104,7 @@
         <v>2175</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -28936,7 +29136,7 @@
         <v>2176</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -28965,10 +29165,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -28997,10 +29197,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29031,10 +29231,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29065,10 +29265,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29099,10 +29299,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29133,10 +29333,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D387" s="110" t="s">
         <v>2234</v>
-      </c>
-      <c r="D387" s="110" t="s">
-        <v>2235</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29156,7 +29356,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29167,10 +29367,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D388" s="110" t="s">
         <v>2238</v>
-      </c>
-      <c r="D388" s="110" t="s">
-        <v>2239</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29190,7 +29390,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29201,10 +29401,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D389" s="109" t="s">
         <v>2241</v>
-      </c>
-      <c r="D389" s="109" t="s">
-        <v>2242</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29224,7 +29424,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29235,10 +29435,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D390" s="109" t="s">
         <v>2243</v>
-      </c>
-      <c r="D390" s="109" t="s">
-        <v>2244</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29252,13 +29452,217 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2246</v>
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="116" customFormat="1">
+      <c r="A391" s="113">
+        <v>390</v>
+      </c>
+      <c r="B391" s="113">
+        <v>1</v>
+      </c>
+      <c r="C391" s="114" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D391" s="114" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E391" s="113"/>
+      <c r="F391" s="113"/>
+      <c r="G391" s="113">
+        <v>426</v>
+      </c>
+      <c r="H391" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I391" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="114" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K391" s="113">
+        <v>1618272000</v>
+      </c>
+      <c r="L391" s="114" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" s="116" customFormat="1">
+      <c r="A392" s="113">
+        <v>391</v>
+      </c>
+      <c r="B392" s="113">
+        <v>1</v>
+      </c>
+      <c r="C392" s="113" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D392" s="113" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E392" s="113"/>
+      <c r="F392" s="113"/>
+      <c r="G392" s="113">
+        <v>427</v>
+      </c>
+      <c r="H392" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I392" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="114" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K392" s="113">
+        <v>1618272000</v>
+      </c>
+      <c r="L392" s="114" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" s="112" customFormat="1">
+      <c r="A393" s="110">
+        <v>392</v>
+      </c>
+      <c r="B393" s="110">
+        <v>1</v>
+      </c>
+      <c r="C393" s="109" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D393" s="109" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E393" s="110"/>
+      <c r="F393" s="110"/>
+      <c r="G393" s="110">
+        <v>428</v>
+      </c>
+      <c r="H393" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I393" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="109" t="s">
+        <v>2263</v>
+      </c>
+      <c r="K393" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L393" s="109" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" s="112" customFormat="1">
+      <c r="A394" s="110">
+        <v>393</v>
+      </c>
+      <c r="B394" s="110">
+        <v>1</v>
+      </c>
+      <c r="C394" s="109" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D394" s="109" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E394" s="110"/>
+      <c r="F394" s="110"/>
+      <c r="G394" s="110">
+        <v>429</v>
+      </c>
+      <c r="H394" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I394" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="109" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K394" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L394" s="109" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" s="112" customFormat="1">
+      <c r="A395" s="110">
+        <v>394</v>
+      </c>
+      <c r="B395" s="110">
+        <v>1</v>
+      </c>
+      <c r="C395" s="109" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D395" s="109" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E395" s="110"/>
+      <c r="F395" s="110"/>
+      <c r="G395" s="110">
+        <v>430</v>
+      </c>
+      <c r="H395" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I395" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K395" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L395" s="109" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" s="112" customFormat="1">
+      <c r="A396" s="110">
+        <v>395</v>
+      </c>
+      <c r="B396" s="110">
+        <v>1</v>
+      </c>
+      <c r="C396" s="109" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D396" s="109" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E396" s="110"/>
+      <c r="F396" s="110"/>
+      <c r="G396" s="110">
+        <v>431</v>
+      </c>
+      <c r="H396" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I396" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J396" s="109" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K396" s="110">
+        <v>1618243200</v>
+      </c>
+      <c r="L396" s="109" t="s">
+        <v>2264</v>
       </c>
     </row>
   </sheetData>
@@ -29272,13 +29676,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1038"/>
+  <dimension ref="A1:I1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1013" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1039" sqref="E1039"/>
+      <selection pane="bottomRight" activeCell="A1041" sqref="A1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53597,7 +54001,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -53643,7 +54047,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -53689,7 +54093,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -53781,7 +54185,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -53873,7 +54277,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -53965,7 +54369,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -53988,7 +54392,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -54011,7 +54415,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54034,7 +54438,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -54057,7 +54461,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54080,7 +54484,237 @@
         <v>1</v>
       </c>
       <c r="G1038" s="92" t="s">
-        <v>2247</v>
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7">
+      <c r="A1039" s="8">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="95">
+        <v>426</v>
+      </c>
+      <c r="C1039" s="96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1039" s="96" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1039" s="95">
+        <v>5</v>
+      </c>
+      <c r="F1039" s="95">
+        <v>1</v>
+      </c>
+      <c r="G1039" s="96" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="A1040" s="8">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="95">
+        <v>427</v>
+      </c>
+      <c r="C1040" s="96" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1040" s="96" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1040" s="95">
+        <v>2</v>
+      </c>
+      <c r="F1040" s="95">
+        <v>1</v>
+      </c>
+      <c r="G1040" s="96" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" s="8">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="91">
+        <v>428</v>
+      </c>
+      <c r="C1041" s="92" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1041" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1041" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1041" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1041" s="92" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" s="8">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="91">
+        <v>428</v>
+      </c>
+      <c r="C1042" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1042" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1042" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1042" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1042" s="92" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7">
+      <c r="A1043" s="8">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="91">
+        <v>429</v>
+      </c>
+      <c r="C1043" s="92" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1043" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1043" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1043" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1043" s="92" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" s="8">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="91">
+        <v>429</v>
+      </c>
+      <c r="C1044" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1044" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1044" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1044" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1044" s="92" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7">
+      <c r="A1045" s="8">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="91">
+        <v>430</v>
+      </c>
+      <c r="C1045" s="92" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1045" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1045" s="91">
+        <v>4</v>
+      </c>
+      <c r="F1045" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1045" s="92" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" s="8">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="91">
+        <v>430</v>
+      </c>
+      <c r="C1046" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1046" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1046" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1046" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1046" s="92" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7">
+      <c r="A1047" s="8">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="91">
+        <v>431</v>
+      </c>
+      <c r="C1047" s="92" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1047" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1047" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1047" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1047" s="92" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7">
+      <c r="A1048" s="8">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="91">
+        <v>431</v>
+      </c>
+      <c r="C1048" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1048" s="92" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1048" s="91">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="92" t="s">
+        <v>2230</v>
       </c>
     </row>
   </sheetData>
@@ -54096,7 +54730,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54414,7 +55048,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2206</v>
+        <v>2266</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
@@ -54460,7 +55094,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
@@ -54475,7 +55109,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -54483,22 +55117,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2209</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2211</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -54506,22 +55140,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2214</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2215</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -54529,22 +55163,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2217</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2218</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5305" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="2276">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10171,10 +10171,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>tthlby_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","normal","vivo","xiaomi","yyb_hlttby","byam_xianwan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10529,6 +10525,30 @@
   </si>
   <si>
     <t>达人榜（cjj和捕鱼奥秘不开启）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品广告图显示权限（天天欢乐捕鱼平台）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是天天欢乐捕鱼平台玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwgp_can_show_player</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11384,11 +11404,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q480"/>
+  <dimension ref="A1:Q483"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C481" sqref="C481"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16272,6 +16292,17 @@
         <v>417</v>
       </c>
     </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C483" s="2">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16284,11 +16315,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D372" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C397" sqref="C397"/>
+      <selection pane="bottomRight" activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28844,7 +28875,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D372" s="65" t="s">
         <v>2183</v>
@@ -28978,7 +29009,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2128</v>
@@ -29083,7 +29114,7 @@
         <v>2174</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -29115,7 +29146,7 @@
         <v>2175</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -29147,7 +29178,7 @@
         <v>2176</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -29176,10 +29207,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -29208,10 +29239,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29242,10 +29273,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29276,10 +29307,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29310,10 +29341,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29344,10 +29375,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D387" s="110" t="s">
         <v>2233</v>
-      </c>
-      <c r="D387" s="110" t="s">
-        <v>2234</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29367,7 +29398,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29378,10 +29409,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D388" s="110" t="s">
         <v>2237</v>
-      </c>
-      <c r="D388" s="110" t="s">
-        <v>2238</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29401,7 +29432,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29412,10 +29443,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D389" s="109" t="s">
         <v>2240</v>
-      </c>
-      <c r="D389" s="109" t="s">
-        <v>2241</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29435,7 +29466,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29446,10 +29477,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D390" s="109" t="s">
         <v>2242</v>
-      </c>
-      <c r="D390" s="109" t="s">
-        <v>2243</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29463,13 +29494,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29480,10 +29511,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29497,13 +29528,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29514,10 +29545,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D392" s="113" t="s">
         <v>2250</v>
-      </c>
-      <c r="D392" s="113" t="s">
-        <v>2251</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29537,7 +29568,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29548,10 +29579,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29565,13 +29596,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29582,10 +29613,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29599,13 +29630,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29616,10 +29647,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29639,7 +29670,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29650,10 +29681,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29673,7 +29704,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29684,10 +29715,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D397" s="15" t="s">
         <v>2269</v>
-      </c>
-      <c r="D397" s="15" t="s">
-        <v>2270</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29721,13 +29752,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1048"/>
+  <dimension ref="A1:I1049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1013" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1022" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1041" sqref="A1041"/>
+      <selection pane="bottomRight" activeCell="C1054" sqref="C1054"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54046,7 +54077,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -54092,7 +54123,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -54138,7 +54169,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -54230,7 +54261,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -54322,7 +54353,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -54414,7 +54445,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -54437,7 +54468,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -54460,7 +54491,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54483,7 +54514,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -54506,7 +54537,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54529,7 +54560,7 @@
         <v>1</v>
       </c>
       <c r="G1038" s="92" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -54552,7 +54583,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
@@ -54575,7 +54606,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="96" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
@@ -54586,7 +54617,7 @@
         <v>428</v>
       </c>
       <c r="C1041" s="92" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D1041" s="91">
         <v>3</v>
@@ -54598,7 +54629,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="92" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1042" spans="1:7">
@@ -54621,7 +54652,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -54632,7 +54663,7 @@
         <v>429</v>
       </c>
       <c r="C1043" s="92" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D1043" s="91">
         <v>4</v>
@@ -54644,7 +54675,7 @@
         <v>1</v>
       </c>
       <c r="G1043" s="92" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1044" spans="1:7">
@@ -54667,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1045" spans="1:7">
@@ -54678,7 +54709,7 @@
         <v>430</v>
       </c>
       <c r="C1045" s="92" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D1045" s="91">
         <v>3</v>
@@ -54690,7 +54721,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -54713,7 +54744,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
@@ -54724,7 +54755,7 @@
         <v>431</v>
       </c>
       <c r="C1047" s="92" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D1047" s="91">
         <v>4</v>
@@ -54736,7 +54767,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
@@ -54759,7 +54790,30 @@
         <v>1</v>
       </c>
       <c r="G1048" s="92" t="s">
-        <v>2230</v>
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" s="8">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="8">
+        <v>432</v>
+      </c>
+      <c r="C1049" s="8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1049" s="8" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E1049" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="8" t="s">
+        <v>2274</v>
       </c>
     </row>
   </sheetData>
@@ -54775,7 +54829,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55093,7 +55147,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
@@ -55208,22 +55262,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2215</v>
+        <v>2272</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2216</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2217</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -11406,7 +11406,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A483" sqref="A483"/>
     </sheetView>
@@ -29754,11 +29754,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1049"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1022" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1054" sqref="C1054"/>
+      <selection pane="bottomRight" activeCell="F850" sqref="F850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50106,7 +50106,7 @@
         <v>5</v>
       </c>
       <c r="F850" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G850" s="13" t="s">
         <v>1819</v>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -50106,7 +50106,7 @@
         <v>5</v>
       </c>
       <c r="F850" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G850" s="13" t="s">
         <v>1819</v>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9911,19 +9911,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼掉落权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于捕鱼奥秘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10549,6 +10537,18 @@
   </si>
   <si>
     <t>lwgp_can_show_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘渔场限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_fish_select</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11406,9 +11406,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q483"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A483" sqref="A483"/>
+      <selection pane="bottomLeft" activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15389,7 +15389,7 @@
         <v>1857</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C356" s="2">
         <v>343</v>
@@ -16238,11 +16238,11 @@
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="2" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>2151</v>
+      <c r="A473" s="26" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B473" s="26" t="s">
+        <v>2274</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -16250,10 +16250,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C475" s="2">
         <v>23</v>
@@ -16261,10 +16261,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="26" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="C477" s="2">
         <v>411</v>
@@ -16272,10 +16272,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="26" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="C478" s="2">
         <v>412</v>
@@ -16283,10 +16283,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="C480" s="2">
         <v>417</v>
@@ -16294,10 +16294,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="C483" s="2">
         <v>432</v>
@@ -28501,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="107" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>2053</v>
@@ -28875,10 +28875,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -28909,7 +28909,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>2064</v>
@@ -29009,7 +29009,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2128</v>
@@ -29111,10 +29111,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -29132,7 +29132,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="29" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -29143,10 +29143,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -29164,7 +29164,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="29" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -29175,10 +29175,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -29196,7 +29196,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="29" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -29207,10 +29207,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -29228,7 +29228,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="29" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="383" spans="1:12" s="112" customFormat="1">
@@ -29239,10 +29239,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29262,7 +29262,7 @@
         <v>1618243200</v>
       </c>
       <c r="L383" s="109" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="384" spans="1:12" s="112" customFormat="1">
@@ -29273,10 +29273,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29296,7 +29296,7 @@
         <v>1618243200</v>
       </c>
       <c r="L384" s="109" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="385" spans="1:12" s="112" customFormat="1">
@@ -29307,10 +29307,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29330,7 +29330,7 @@
         <v>1618243200</v>
       </c>
       <c r="L385" s="109" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="386" spans="1:12" s="112" customFormat="1">
@@ -29341,10 +29341,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29364,7 +29364,7 @@
         <v>1618243200</v>
       </c>
       <c r="L386" s="109" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="387" spans="1:12" s="112" customFormat="1">
@@ -29375,10 +29375,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="D387" s="110" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29398,7 +29398,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29409,10 +29409,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="D388" s="110" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29432,7 +29432,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29443,10 +29443,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="D389" s="109" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29466,7 +29466,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29477,10 +29477,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29494,13 +29494,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29511,10 +29511,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29528,13 +29528,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29545,10 +29545,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="D392" s="113" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29568,7 +29568,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29579,10 +29579,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29596,13 +29596,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29613,10 +29613,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29630,13 +29630,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29647,10 +29647,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29670,7 +29670,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29681,10 +29681,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29704,7 +29704,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29715,10 +29715,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29754,11 +29754,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1023" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F850" sqref="F850"/>
+      <selection pane="bottomRight" activeCell="D1033" sqref="D1033"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33977,7 +33977,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="7" customFormat="1">
@@ -33991,7 +33991,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="79" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="E182" s="13">
         <v>2</v>
@@ -34000,7 +34000,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="7" customFormat="1">
@@ -34448,7 +34448,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="E201" s="88">
         <v>2</v>
@@ -49984,7 +49984,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="92" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -50050,7 +50050,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="92" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="E848" s="91">
         <v>2</v>
@@ -50415,7 +50415,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="9" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="7" customFormat="1">
@@ -50461,7 +50461,7 @@
         <v>2</v>
       </c>
       <c r="G864" s="9" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
@@ -50871,7 +50871,7 @@
         <v>1140</v>
       </c>
       <c r="D881" s="9" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="E881" s="7">
         <v>2</v>
@@ -50917,7 +50917,7 @@
         <v>1140</v>
       </c>
       <c r="D883" s="9" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="E883" s="7">
         <v>5</v>
@@ -53654,16 +53654,16 @@
         <v>1140</v>
       </c>
       <c r="D999" s="8" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="E999" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F999" s="8">
         <v>1</v>
       </c>
-      <c r="G999" s="8" t="s">
-        <v>2153</v>
+      <c r="G999" s="48" t="s">
+        <v>2273</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -53674,7 +53674,7 @@
         <v>411</v>
       </c>
       <c r="C1000" s="48" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="D1000" s="8">
         <v>0</v>
@@ -53686,7 +53686,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="48" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -53801,7 +53801,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="9" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -53870,7 +53870,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="9" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -53916,7 +53916,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="48" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -53939,7 +53939,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="9" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -53962,7 +53962,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="48" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -53985,7 +53985,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="48" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -54031,7 +54031,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="8" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1016" spans="1:7">
@@ -54077,7 +54077,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -54123,7 +54123,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -54169,7 +54169,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -54261,7 +54261,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -54330,7 +54330,7 @@
         <v>1</v>
       </c>
       <c r="G1028" s="92" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -54353,7 +54353,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -54399,7 +54399,7 @@
         <v>1</v>
       </c>
       <c r="G1031" s="92" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1032" spans="1:7">
@@ -54422,7 +54422,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="92" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -54445,7 +54445,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -54468,7 +54468,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -54491,7 +54491,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54514,7 +54514,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -54537,7 +54537,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54560,7 +54560,7 @@
         <v>1</v>
       </c>
       <c r="G1038" s="92" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -54583,7 +54583,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
@@ -54606,7 +54606,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="96" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
@@ -54617,7 +54617,7 @@
         <v>428</v>
       </c>
       <c r="C1041" s="92" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D1041" s="91">
         <v>3</v>
@@ -54629,7 +54629,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="92" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1042" spans="1:7">
@@ -54652,7 +54652,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -54663,7 +54663,7 @@
         <v>429</v>
       </c>
       <c r="C1043" s="92" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D1043" s="91">
         <v>4</v>
@@ -54675,7 +54675,7 @@
         <v>1</v>
       </c>
       <c r="G1043" s="92" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1044" spans="1:7">
@@ -54698,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1045" spans="1:7">
@@ -54709,7 +54709,7 @@
         <v>430</v>
       </c>
       <c r="C1045" s="92" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D1045" s="91">
         <v>3</v>
@@ -54721,7 +54721,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -54744,7 +54744,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
@@ -54755,7 +54755,7 @@
         <v>431</v>
       </c>
       <c r="C1047" s="92" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D1047" s="91">
         <v>4</v>
@@ -54767,7 +54767,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
@@ -54790,7 +54790,7 @@
         <v>1</v>
       </c>
       <c r="G1048" s="92" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1049" spans="1:7">
@@ -54801,19 +54801,19 @@
         <v>432</v>
       </c>
       <c r="C1049" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D1049" s="8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E1049" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1049" s="8" t="s">
         <v>2271</v>
-      </c>
-      <c r="D1049" s="8" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E1049" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1049" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1049" s="8" t="s">
-        <v>2274</v>
       </c>
     </row>
   </sheetData>
@@ -54863,7 +54863,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -54871,13 +54871,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -54917,7 +54917,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -54946,7 +54946,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -54963,13 +54963,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -54978,7 +54978,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55001,7 +55001,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55009,13 +55009,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -55024,7 +55024,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55047,7 +55047,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55055,13 +55055,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55070,7 +55070,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55078,7 +55078,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
@@ -55093,7 +55093,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55116,7 +55116,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55124,7 +55124,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
@@ -55147,7 +55147,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
@@ -55193,13 +55193,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -55208,7 +55208,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55216,22 +55216,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2208</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55239,13 +55239,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55254,7 +55254,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55262,13 +55262,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -55277,7 +55277,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.13/permission_server_config.xlsx
+++ b/config_4.13/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5305" uniqueCount="2271">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10385,6 +10385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -10405,6 +10406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -10426,6 +10428,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -10518,6 +10521,14 @@
       </rPr>
       <t>IP4及以上玩家</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_leijixiaohao_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜（cjj和捕鱼奥秘不开启）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16271,13 +16282,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F399" sqref="F399"/>
+      <selection pane="bottomRight" activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29663,6 +29674,40 @@
       </c>
       <c r="L396" s="109" t="s">
         <v>2264</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" s="21" customFormat="1">
+      <c r="A397" s="16">
+        <v>396</v>
+      </c>
+      <c r="B397" s="16">
+        <v>1</v>
+      </c>
+      <c r="C397" s="15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D397" s="15" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16">
+        <v>338</v>
+      </c>
+      <c r="H397" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I397" t="b">
+        <v>1</v>
+      </c>
+      <c r="J397" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="K397" s="16">
+        <v>0</v>
+      </c>
+      <c r="L397" s="25" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
